--- a/The Data Science Course 2021 - All Resources/Part_3_Statistics/S18_L105/3.9.Population-variance-known-z-score-exercise.xlsx
+++ b/The Data Science Course 2021 - All Resources/Part_3_Statistics/S18_L105/3.9.Population-variance-known-z-score-exercise.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics Course\Filming\Final excel\Section 3 - Inferential\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.cintra\Documents\repository\The Data Science Course 2021 - All Resources\Part_3_Statistics\S18_L105\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F55A58-F135-4BEA-98C7-95E5B4E5A815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CI" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Data scientist salary</t>
   </si>
@@ -57,12 +69,24 @@
   </si>
   <si>
     <t>You are given the same dataset from the lesson. The population standard deviation is known to be $ 15,000.</t>
+  </si>
+  <si>
+    <t>population std</t>
+  </si>
+  <si>
+    <t>Sample Mean</t>
+  </si>
+  <si>
+    <t>standard error</t>
+  </si>
+  <si>
+    <t>Confidence Level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -155,7 +179,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -170,18 +194,21 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -497,38 +524,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="10" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -536,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -544,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -552,7 +582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -560,267 +590,202 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>117313</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>104002</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12">
+        <f>AVERAGE(B11:B40)</f>
+        <v>100200.36666666667</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>113038</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>101936</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10">
+        <f>E13/SQRT(COUNT(B11:B40))</f>
+        <v>2738.6127875258308</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>84560</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>113136</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="10"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>80740</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>100536</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:11" ht="12" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>105052</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>87201</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>91986</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>94868</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>90745</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>102848</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>85927</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>112276</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>108637</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>96818</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>92307</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>114564</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <v>109714</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>108833</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>115295</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <v>89279</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <v>81720</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>89344</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <v>114426</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>90410</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>95118</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>113382</v>
       </c>
